--- a/public/Pelanggan/wilayah.xlsx
+++ b/public/Pelanggan/wilayah.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FE9701-FDA8-4E8F-AABF-DB2060BF36F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545FF3A-270F-4FEF-80EE-EBDC704C2939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{C85945FA-2EED-45A4-B385-63D2DC057A78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{C85945FA-2EED-45A4-B385-63D2DC057A78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="76">
   <si>
     <t>WILAYAH I</t>
   </si>
@@ -108,28 +108,167 @@
     <t>Smd Selatan</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>of 1</t>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>0403</t>
+  </si>
+  <si>
+    <t>0404</t>
+  </si>
+  <si>
+    <t>0405</t>
+  </si>
+  <si>
+    <t>0406</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>0504</t>
+  </si>
+  <si>
+    <t>0505</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0604</t>
+  </si>
+  <si>
+    <t>0605</t>
+  </si>
+  <si>
+    <t>0606</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>0705</t>
+  </si>
+  <si>
+    <t>0706</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>0803</t>
+  </si>
+  <si>
+    <t>0804</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>0903</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <t>0905</t>
+  </si>
+  <si>
+    <t>0906</t>
+  </si>
+  <si>
+    <t>0907</t>
+  </si>
+  <si>
+    <t>0908</t>
+  </si>
+  <si>
+    <t>0909</t>
+  </si>
+  <si>
+    <t>0910</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,11 +291,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,15 +303,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -199,13 +333,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>84</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>85</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -218,7 +352,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5852879-2126-48E0-A4AD-D04CEDF8A3D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -546,10 +680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E8A0F1-1B1D-4F76-9CCA-5737940E2FEC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:N85"/>
+  <dimension ref="B1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,8 +694,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>101</v>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -571,8 +705,8 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>102</v>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -582,8 +716,8 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>106</v>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -593,8 +727,8 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>107</v>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -604,8 +738,8 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>108</v>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -615,8 +749,8 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>201</v>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
@@ -626,8 +760,8 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>202</v>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -637,8 +771,8 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>203</v>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -648,8 +782,8 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>204</v>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -659,8 +793,8 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>301</v>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
@@ -670,8 +804,8 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>302</v>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -681,8 +815,8 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>303</v>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -692,8 +826,8 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>304</v>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -703,8 +837,8 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>401</v>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
@@ -714,8 +848,8 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>402</v>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -725,8 +859,8 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>403</v>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -736,8 +870,8 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>404</v>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -747,8 +881,8 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>405</v>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -758,8 +892,8 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>406</v>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
@@ -769,8 +903,8 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>501</v>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>0</v>
@@ -780,8 +914,8 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>502</v>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
@@ -791,8 +925,8 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>503</v>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -802,8 +936,8 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>504</v>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
@@ -813,8 +947,8 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>505</v>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
@@ -824,8 +958,8 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>601</v>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>0</v>
@@ -835,8 +969,8 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>602</v>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
@@ -846,8 +980,8 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>603</v>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
@@ -857,8 +991,8 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>604</v>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -868,8 +1002,8 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>605</v>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
@@ -879,8 +1013,8 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>606</v>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -890,8 +1024,8 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>701</v>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>0</v>
@@ -901,8 +1035,8 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>702</v>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -912,8 +1046,8 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
-        <v>703</v>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
@@ -923,8 +1057,8 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
-        <v>704</v>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
@@ -934,8 +1068,8 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
-        <v>705</v>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -945,8 +1079,8 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
-        <v>706</v>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -956,8 +1090,8 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>707</v>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -967,8 +1101,8 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1">
-        <v>801</v>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>0</v>
@@ -978,8 +1112,8 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>802</v>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
@@ -989,8 +1123,8 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
-        <v>803</v>
+      <c r="B40" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
@@ -1000,8 +1134,8 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
-        <v>804</v>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
@@ -1011,8 +1145,8 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
-        <v>901</v>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>0</v>
@@ -1022,8 +1156,8 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <v>902</v>
+      <c r="B43" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -1033,8 +1167,8 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1">
-        <v>903</v>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
@@ -1044,8 +1178,8 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1">
-        <v>904</v>
+      <c r="B45" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
@@ -1055,8 +1189,8 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1">
-        <v>905</v>
+      <c r="B46" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -1066,8 +1200,8 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1">
-        <v>906</v>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>3</v>
@@ -1077,8 +1211,8 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <v>907</v>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -1088,8 +1222,8 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <v>908</v>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
@@ -1099,8 +1233,8 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <v>909</v>
+      <c r="B50" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
@@ -1110,8 +1244,8 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <v>910</v>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
@@ -1439,7 +1573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>3102</v>
       </c>
@@ -1450,7 +1584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>3103</v>
       </c>
@@ -1461,7 +1595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>3104</v>
       </c>
@@ -1472,7 +1606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>3105</v>
       </c>
@@ -1483,50 +1617,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J85" s="4"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="5"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D85" r:id="rId1" display="javascript:void(0)" xr:uid="{551EA302-BBAC-49C7-9EB3-4232D49A5556}"/>
-    <hyperlink ref="E85" r:id="rId2" display="javascript:void(0)" xr:uid="{DEC91F59-DEA0-4C66-8D2B-27F4939EA1B4}"/>
-    <hyperlink ref="K85" r:id="rId3" display="javascript:void(0)" xr:uid="{CEA76C05-A7B1-453A-AC15-E34C651E181B}"/>
-    <hyperlink ref="L85" r:id="rId4" display="javascript:void(0)" xr:uid="{AC4EB1CB-99E5-488E-807D-3405DAAD733C}"/>
-    <hyperlink ref="N85" r:id="rId5" display="javascript:void(0)" xr:uid="{5751D9E2-B4A1-458D-9A85-4F0761259301}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId8" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId9">
+        <control shapeId="1025" r:id="rId3" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>84</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>85</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
@@ -1536,7 +1644,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId8" name="Control 1"/>
+        <control shapeId="1025" r:id="rId3" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
